--- a/SSXtoolkit_participants.xlsx
+++ b/SSXtoolkit_participants.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL-PC\Desktop\workshops_emails\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="2440" yWindow="-21600" windowWidth="35940" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop 1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>NR.</t>
   </si>
@@ -573,16 +573,31 @@
 (Full-day workshop)</t>
     </r>
   </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Respondents:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +666,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -682,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +800,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,7 +845,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="BARRA2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,7 +952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,81 +1161,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AR30"/>
+  <dimension ref="A3:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="14.5" customHeight="1">
       <c r="G3" s="36" t="s">
         <v>175</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="14.5" customHeight="1">
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="14.5" customHeight="1">
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="14.5" customHeight="1">
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="14.5" customHeight="1">
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="14.5" customHeight="1">
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="14.5" customHeight="1">
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="14.5" customHeight="1">
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:44" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15.5" customHeight="1">
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15">
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="15">
       <c r="A13" s="12"/>
       <c r="M13" s="5"/>
       <c r="O13" s="34"/>
@@ -1242,7 +1269,7 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
     </row>
-    <row r="14" spans="1:44" s="11" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="11" customFormat="1" ht="33.5" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -1286,10 +1313,18 @@
         <v>9</v>
       </c>
       <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="P14" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>179</v>
+      </c>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
@@ -1316,7 +1351,7 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
     </row>
-    <row r="15" spans="1:44" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="35" customHeight="1">
       <c r="A15" s="13">
         <v>7</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" s="4" customFormat="1" ht="35" customHeight="1">
       <c r="A16" s="13">
         <v>39</v>
       </c>
@@ -1404,7 +1439,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="35" customHeight="1">
       <c r="A17" s="13">
         <v>54</v>
       </c>
@@ -1447,8 +1482,20 @@
       <c r="N17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="35" customHeight="1">
       <c r="A18" s="13">
         <v>62</v>
       </c>
@@ -1492,7 +1539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="35" customHeight="1">
       <c r="A19" s="13">
         <v>69</v>
       </c>
@@ -1536,7 +1583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="35" customHeight="1">
       <c r="A20" s="13">
         <v>71</v>
       </c>
@@ -1580,7 +1627,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="35" customHeight="1">
       <c r="A21" s="13">
         <v>83</v>
       </c>
@@ -1624,7 +1671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="35" customHeight="1">
       <c r="A22" s="13">
         <v>86</v>
       </c>
@@ -1668,7 +1715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="35" customHeight="1">
       <c r="A23" s="13">
         <v>120</v>
       </c>
@@ -1712,7 +1759,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="35" customHeight="1">
       <c r="A24" s="27">
         <v>128</v>
       </c>
@@ -1759,7 +1806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="35" customHeight="1">
       <c r="A25" s="13">
         <v>155</v>
       </c>
@@ -1802,8 +1849,20 @@
       <c r="N25" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="35" customHeight="1">
       <c r="A26" s="28">
         <v>163</v>
       </c>
@@ -1850,7 +1909,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="35" customHeight="1">
       <c r="A27" s="28">
         <v>188</v>
       </c>
@@ -1897,7 +1956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="35" customHeight="1">
       <c r="A28" s="13">
         <v>189</v>
       </c>
@@ -1941,7 +2000,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="35" customHeight="1">
       <c r="A29" s="13">
         <v>214</v>
       </c>
@@ -1984,8 +2043,20 @@
       <c r="N29" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="35" customHeight="1">
       <c r="A30" s="28">
         <v>215</v>
       </c>
@@ -2030,6 +2101,31 @@
       </c>
       <c r="O30" s="26" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="P31">
+        <f>SUM(P15:P30)</f>
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:S31" si="0">SUM(Q15:Q30)</f>
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>180</v>
+      </c>
+      <c r="W31">
+        <f>COUNT(P15:P30)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2140,12 @@
     <hyperlink ref="N27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/SSXtoolkit_participants.xlsx
+++ b/SSXtoolkit_participants.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="-21600" windowWidth="35940" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop 1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -792,6 +792,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,12 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,7 +845,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="BARRA2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1184,51 +1184,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:44" ht="14.5" customHeight="1">
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:44" ht="15.5" customHeight="1">
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:44" ht="15">
       <c r="G12" s="33"/>
@@ -1238,14 +1238,14 @@
     <row r="13" spans="1:44" ht="15">
       <c r="A13" s="12"/>
       <c r="M13" s="5"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="17"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -1254,10 +1254,10 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="19"/>
       <c r="AD13" s="18"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="4"/>
@@ -1313,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="O14" s="16"/>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="35" t="s">
         <v>179</v>
       </c>
       <c r="T14" s="20"/>
@@ -1438,6 +1438,18 @@
       <c r="N16" s="15" t="s">
         <v>172</v>
       </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="35" customHeight="1">
       <c r="A17" s="13">
@@ -1714,6 +1726,18 @@
       <c r="N22" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="35" customHeight="1">
       <c r="A23" s="13">
@@ -1999,6 +2023,18 @@
       <c r="N28" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="35" customHeight="1">
       <c r="A29" s="13">
@@ -2106,11 +2142,11 @@
     <row r="31" spans="1:23">
       <c r="P31">
         <f>SUM(P15:P30)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <f t="shared" ref="Q31:S31" si="0">SUM(Q15:Q30)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -2118,14 +2154,14 @@
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U31" t="s">
         <v>180</v>
       </c>
       <c r="W31">
         <f>COUNT(P15:P30)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
